--- a/biology/Zoologie/Aphrissa/Aphrissa.xlsx
+++ b/biology/Zoologie/Aphrissa/Aphrissa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Aphrissa regroupe des insectes lépidoptères de la famille des Pieridae, de la sous-famille des Coliadinae.
 </t>
@@ -511,9 +523,11 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Aphrissa a été décrit par le zoologiste anglais Butler, en 1873[1]. L'espèce type est Papilio statira (Cramer, 1777)
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Aphrissa a été décrit par le zoologiste anglais Butler, en 1873. L'espèce type est Papilio statira (Cramer, 1777)
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Leur aire de répartition se situe en Amérique du Sud, en Amérique centrale et jusqu'au sud-est du Mexique.
 </t>
@@ -573,7 +589,9 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Aphrissa boisduvalii (C. et R. Felder, 1861) au Guatemala, en Colombie, en Bolivie et au Brésil.
 Aphrissa fluminensis (d'Almeida, 1921) au Brésil, en Guyane et au Pérou.
@@ -585,7 +603,7 @@
 Aphrissa orbis orbis à Cuba.
 Aphrissa orbis browni (Munroe, 1947) à Haïti.
 Aphrissa schausi (Avinoff, 1926) au Guatemala et dans le sud-est du Mexique.
-Aphrissa statira (Cramer, [1777])
+Aphrissa statira (Cramer, )
 Aphrissa wallacei (C. et R. Felder, 1862) au Brésil et au Pérou.
 			Aphrissa fluminensis
 			Aphrissa statira
